--- a/Alternatives/Alternative1_00/ServiceWorksheetalt1.xlsx
+++ b/Alternatives/Alternative1_00/ServiceWorksheetalt1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrooks\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="500"/>
+    <workbookView xWindow="13060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2035" sheetId="1" r:id="rId1"/>
+    <sheet name="2035_ALT1_00" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>FREQ[1]</t>
   </si>
@@ -189,12 +184,15 @@
   </si>
   <si>
     <t>Pleasant Hill-SFO WB</t>
+  </si>
+  <si>
+    <t>CROSSING TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -719,37 +717,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.875" style="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
@@ -802,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="47.25">
       <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
@@ -855,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -912,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -971,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1207,19 +1205,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4" t="s">
@@ -1231,7 +1229,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>45</v>
@@ -1253,7 +1251,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
@@ -1281,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1481,9 +1479,64 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="1">
+        <f>C15+E15</f>
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <f>D15+F15</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:D26" si="6">C16+E16</f>
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
